--- a/data/case1/20/P_device_13.xlsx
+++ b/data/case1/20/P_device_13.xlsx
@@ -56,48 +56,48 @@
   <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.036768286743638849</v>
+        <v>0.00041965430430657543</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.036768287227620759</v>
+        <v>-0.00041965497552812707</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.0025586224446016328</v>
+        <v>-0.0074889758259489942</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.0025586229401821192</v>
+        <v>0.0074889751258344081</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.040748799280518319</v>
+        <v>0.025240815353237259</v>
       </c>
       <c r="B3" s="0">
-        <v>0.040748798823009927</v>
+        <v>-0.025240815991401145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.044081717858642837</v>
+        <v>-0.0177848572980044</v>
       </c>
       <c r="B4" s="0">
-        <v>0.044081717373315399</v>
+        <v>0.017784856665811907</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.0083005797771598649</v>
+        <v>0.0013527091559002362</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.0083005802697249404</v>
+        <v>-0.001352709853694403</v>
       </c>
     </row>
   </sheetData>
